--- a/xlsx/佛教_intext.xlsx
+++ b/xlsx/佛教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1560">
   <si>
     <t>佛教</t>
   </si>
@@ -29,7 +29,7 @@
     <t>鹿野苑</t>
   </si>
   <si>
-    <t>政策_政策_行政_佛教</t>
+    <t>体育运动_体育运动_规则_佛教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E8%BD%AC%E6%B3%95%E8%BD%AE</t>
@@ -542,6 +542,12 @@
     <t>南亞</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%99%80</t>
+  </si>
+  <si>
+    <t>佛陀</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E7%9F%A5%E8%AB%96</t>
   </si>
   <si>
@@ -572,6 +578,12 @@
     <t>應供</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%B0%8A</t>
+  </si>
+  <si>
+    <t>世尊</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E9%9D%88</t>
   </si>
   <si>
@@ -602,6 +614,12 @@
     <t>輪迴</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%A4%98%E6%B6%85%E6%A7%83</t>
+  </si>
+  <si>
+    <t>無餘涅槃</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E9%96%80%E6%95%99</t>
   </si>
   <si>
@@ -926,96 +944,120 @@
     <t>佛教術語</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E4%B8%89%E8%97%8F</t>
+  </si>
+  <si>
+    <t>巴利三藏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%93%88%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>馬哈希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%BF%B5%E5%A4%84</t>
+  </si>
+  <si>
+    <t>四念处</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%83%A7%E7%A5%87</t>
+  </si>
+  <si>
+    <t>阿僧祇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%AB</t>
+  </si>
+  <si>
+    <t>劫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%A9%E8%96%A9</t>
+  </si>
+  <si>
+    <t>菩薩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E8%9C%9C</t>
+  </si>
+  <si>
+    <t>波羅蜜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%83%85</t>
+  </si>
+  <si>
+    <t>有情</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%95%8C</t>
+  </si>
+  <si>
+    <t>天界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%81%93</t>
+  </si>
+  <si>
+    <t>人道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BF%AE%E7%BE%85_(%E4%BD%9B%E6%95%99)</t>
+  </si>
+  <si>
+    <t>阿修羅 (佛教)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%94%9F</t>
+  </si>
+  <si>
+    <t>畜生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A4%93%E9%AC%BC</t>
+  </si>
+  <si>
+    <t>餓鬼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
+  </si>
+  <si>
+    <t>地獄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%81%93</t>
+  </si>
+  <si>
+    <t>六道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E4%BD%9B%E6%95%99)</t>
+  </si>
+  <si>
+    <t>三相 (佛教)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%B8%B8</t>
+  </si>
+  <si>
+    <t>無常</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%88%91</t>
+  </si>
+  <si>
+    <t>無我</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%81%96%E8%AB%A6</t>
   </si>
   <si>
     <t>四聖諦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%83%A7%E7%A5%87</t>
-  </si>
-  <si>
-    <t>阿僧祇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%AB</t>
-  </si>
-  <si>
-    <t>劫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E8%9C%9C</t>
-  </si>
-  <si>
-    <t>波羅蜜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%83%85</t>
-  </si>
-  <si>
-    <t>有情</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%95%8C</t>
-  </si>
-  <si>
-    <t>天界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%81%93</t>
-  </si>
-  <si>
-    <t>人道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BF%AE%E7%BE%85_(%E4%BD%9B%E6%95%99)</t>
-  </si>
-  <si>
-    <t>阿修羅 (佛教)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%94%9F</t>
-  </si>
-  <si>
-    <t>畜生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A4%93%E9%AC%BC</t>
-  </si>
-  <si>
-    <t>餓鬼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
-  </si>
-  <si>
-    <t>地獄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%81%93</t>
-  </si>
-  <si>
-    <t>六道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E4%BD%9B%E6%95%99)</t>
-  </si>
-  <si>
-    <t>三相 (佛教)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%B8%B8</t>
-  </si>
-  <si>
-    <t>無常</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%88%91</t>
-  </si>
-  <si>
-    <t>無我</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA_(%E4%BD%9B%E6%95%99)</t>
   </si>
   <si>
@@ -1034,6 +1076,18 @@
     <t>三學</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9C%A3%E9%81%93</t>
+  </si>
+  <si>
+    <t>八圣道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E6%BC%A2</t>
+  </si>
+  <si>
+    <t>阿羅漢</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%B6%93</t>
   </si>
   <si>
@@ -1076,6 +1130,30 @@
     <t>阿毘達磨藏</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E5%BE%8B%E8%97%8F</t>
+  </si>
+  <si>
+    <t>巴利律藏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%98%E9%81%94%E7%A3%A8</t>
+  </si>
+  <si>
+    <t>阿毘達磨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%9F%E7%B6%93</t>
+  </si>
+  <si>
+    <t>本生經</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%8D%E5%88%A9%E5%BC%97</t>
+  </si>
+  <si>
+    <t>舍利弗</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E6%9C%9F%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
@@ -1406,6 +1484,12 @@
     <t>突厥</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E7%8E%9B%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>卡拉玛经</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E6%AF%97%E5%B0%BC</t>
   </si>
   <si>
@@ -1490,12 +1574,6 @@
     <t>老子</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%99%80</t>
-  </si>
-  <si>
-    <t>佛陀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%96%E9%AB%98</t>
   </si>
   <si>
@@ -2372,6 +2450,18 @@
     <t>小乘佛教</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%B9%98</t>
+  </si>
+  <si>
+    <t>小乘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%BB%93%E9%9B%86</t>
+  </si>
+  <si>
+    <t>第一次结集</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A4%A7%E6%B8%AF</t>
   </si>
   <si>
@@ -2384,12 +2474,6 @@
     <t>米佐拉姆邦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E4%B8%89%E8%97%8F</t>
-  </si>
-  <si>
-    <t>巴利三藏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E6%96%87</t>
   </si>
   <si>
@@ -2402,12 +2486,6 @@
     <t>苦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E6%BC%A2</t>
-  </si>
-  <si>
-    <t>阿羅漢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%97%A1%E6%8F%90</t>
   </si>
   <si>
@@ -2696,6 +2774,18 @@
     <t>Wayback Machine</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E9%98%BF%E5%90%AB%E7%B6%93</t>
+  </si>
+  <si>
+    <t>雜阿含經</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E8%AF%91%E6%9D%82%E9%98%BF%E5%90%AB%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>别译杂阿含经</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E4%BD%9B%E6%95%99%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
@@ -2712,6 +2802,12 @@
   </si>
   <si>
     <t>赫芬顿邮报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8B</t>
+  </si>
+  <si>
+    <t>常見</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%BE%82</t>
@@ -4947,7 +5043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5088,7 +5184,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -5233,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5262,7 +5358,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -5320,7 +5416,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5407,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -5552,7 +5648,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -5581,7 +5677,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -5610,7 +5706,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -5639,7 +5735,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -6248,7 +6344,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -6277,7 +6373,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -6364,7 +6460,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -6422,7 +6518,7 @@
         <v>102</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -6451,7 +6547,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -7205,7 +7301,7 @@
         <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -7292,7 +7388,7 @@
         <v>162</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -7321,7 +7417,7 @@
         <v>164</v>
       </c>
       <c r="G82" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -7495,7 +7591,7 @@
         <v>176</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -7524,7 +7620,7 @@
         <v>178</v>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -7553,7 +7649,7 @@
         <v>180</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -7576,13 +7672,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G91" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -7605,13 +7701,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -7640,7 +7736,7 @@
         <v>184</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -7698,7 +7794,7 @@
         <v>188</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -7727,7 +7823,7 @@
         <v>190</v>
       </c>
       <c r="G96" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -7756,7 +7852,7 @@
         <v>192</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -7785,7 +7881,7 @@
         <v>194</v>
       </c>
       <c r="G98" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -7814,7 +7910,7 @@
         <v>196</v>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -7843,7 +7939,7 @@
         <v>198</v>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -7901,7 +7997,7 @@
         <v>202</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7930,7 +8026,7 @@
         <v>204</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -7959,7 +8055,7 @@
         <v>206</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -7988,7 +8084,7 @@
         <v>208</v>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -8017,7 +8113,7 @@
         <v>210</v>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -8046,7 +8142,7 @@
         <v>212</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -8075,7 +8171,7 @@
         <v>214</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -8104,7 +8200,7 @@
         <v>216</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -8133,7 +8229,7 @@
         <v>218</v>
       </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -8191,7 +8287,7 @@
         <v>222</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -8220,7 +8316,7 @@
         <v>224</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -8249,7 +8345,7 @@
         <v>226</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -8307,7 +8403,7 @@
         <v>230</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -8336,7 +8432,7 @@
         <v>232</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -8365,7 +8461,7 @@
         <v>234</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -8481,7 +8577,7 @@
         <v>242</v>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -8562,13 +8658,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -8591,13 +8687,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -8620,10 +8716,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -8649,13 +8745,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -8684,7 +8780,7 @@
         <v>254</v>
       </c>
       <c r="G129" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -8742,7 +8838,7 @@
         <v>258</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -8771,7 +8867,7 @@
         <v>260</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -8800,7 +8896,7 @@
         <v>262</v>
       </c>
       <c r="G133" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -8829,7 +8925,7 @@
         <v>264</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -8858,7 +8954,7 @@
         <v>266</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -8887,7 +8983,7 @@
         <v>268</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -8916,7 +9012,7 @@
         <v>270</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -8974,7 +9070,7 @@
         <v>274</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -9003,7 +9099,7 @@
         <v>276</v>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -9061,7 +9157,7 @@
         <v>280</v>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -9090,7 +9186,7 @@
         <v>282</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -9148,7 +9244,7 @@
         <v>286</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -9177,7 +9273,7 @@
         <v>288</v>
       </c>
       <c r="G146" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -9235,7 +9331,7 @@
         <v>292</v>
       </c>
       <c r="G148" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -9264,7 +9360,7 @@
         <v>294</v>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -9287,10 +9383,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -9316,13 +9412,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -9345,13 +9441,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -9374,10 +9470,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -9409,7 +9505,7 @@
         <v>302</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -9438,7 +9534,7 @@
         <v>304</v>
       </c>
       <c r="G155" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -9467,7 +9563,7 @@
         <v>306</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -9496,7 +9592,7 @@
         <v>308</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -9519,13 +9615,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>89</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -9548,13 +9644,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -9577,13 +9673,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -9606,13 +9702,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -9635,13 +9731,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -9664,13 +9760,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -9693,13 +9789,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -9722,13 +9818,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -9751,13 +9847,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -9780,13 +9876,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -9809,13 +9905,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -9838,13 +9934,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -9867,13 +9963,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -9896,10 +9992,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9925,10 +10021,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9954,13 +10050,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9983,10 +10079,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -10012,13 +10108,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -10041,13 +10137,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -10070,13 +10166,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -10099,13 +10195,13 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -10128,13 +10224,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -10157,10 +10253,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -10186,13 +10282,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -10215,10 +10311,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -10244,13 +10340,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -10273,10 +10369,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -10302,13 +10398,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -10331,13 +10427,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -10360,13 +10456,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -10389,13 +10485,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -10418,13 +10514,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -10447,10 +10543,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -10476,13 +10572,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -10505,13 +10601,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -10534,13 +10630,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -10563,13 +10659,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -10592,10 +10688,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -10621,13 +10717,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -10650,13 +10746,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -10714,7 +10810,7 @@
         <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -10743,7 +10839,7 @@
         <v>390</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -10772,7 +10868,7 @@
         <v>392</v>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -10801,7 +10897,7 @@
         <v>394</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -10830,7 +10926,7 @@
         <v>396</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -10859,7 +10955,7 @@
         <v>398</v>
       </c>
       <c r="G204" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -10888,7 +10984,7 @@
         <v>400</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -10917,7 +11013,7 @@
         <v>402</v>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10946,7 +11042,7 @@
         <v>404</v>
       </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -10975,7 +11071,7 @@
         <v>406</v>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -11004,7 +11100,7 @@
         <v>408</v>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -11033,7 +11129,7 @@
         <v>410</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -11056,13 +11152,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -11085,13 +11181,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -11114,13 +11210,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -11143,13 +11239,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -11172,10 +11268,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -11201,10 +11297,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -11230,13 +11326,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -11259,10 +11355,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -11288,13 +11384,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -11317,13 +11413,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -11346,13 +11442,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -11375,13 +11471,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -11404,13 +11500,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -11433,13 +11529,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -11462,10 +11558,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -11491,10 +11587,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -11520,13 +11616,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -11549,13 +11645,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -11578,13 +11674,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -11607,13 +11703,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G230" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -11636,13 +11732,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -11665,13 +11761,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -11694,10 +11790,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11723,10 +11819,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11752,10 +11848,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11781,13 +11877,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -11810,10 +11906,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11839,10 +11935,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11868,13 +11964,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -11897,13 +11993,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -11926,10 +12022,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11955,13 +12051,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -11984,13 +12080,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -12013,10 +12109,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -12042,13 +12138,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -12071,13 +12167,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -12100,13 +12196,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -12129,10 +12225,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -12158,10 +12254,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -12187,13 +12283,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -12216,13 +12312,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -12245,13 +12341,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -12274,10 +12370,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -12303,10 +12399,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -12332,10 +12428,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -12361,13 +12457,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -12390,10 +12486,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -12419,13 +12515,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -12448,13 +12544,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -12477,13 +12573,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -12506,13 +12602,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -12535,13 +12631,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -12564,13 +12660,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -12593,13 +12689,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -12622,10 +12718,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -12651,13 +12747,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -12680,10 +12776,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -12709,10 +12805,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -12738,10 +12834,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -12767,10 +12863,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12796,10 +12892,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12825,13 +12921,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -12854,10 +12950,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12883,13 +12979,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -12912,13 +13008,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G275" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -12941,13 +13037,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G276" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -12970,13 +13066,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -12999,13 +13095,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -13028,13 +13124,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -13057,13 +13153,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -13086,10 +13182,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -13115,13 +13211,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -13144,13 +13240,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -13173,10 +13269,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -13202,13 +13298,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -13231,10 +13327,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -13260,13 +13356,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -13289,10 +13385,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -13318,10 +13414,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -13347,13 +13443,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -13376,13 +13472,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -13405,13 +13501,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -13434,10 +13530,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -13463,10 +13559,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -13492,13 +13588,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -13521,13 +13617,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -13550,10 +13646,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -13579,13 +13675,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -13608,10 +13704,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -13637,13 +13733,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -13666,10 +13762,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -13695,13 +13791,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -13724,13 +13820,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -13753,13 +13849,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -13782,10 +13878,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -13811,13 +13907,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -13840,13 +13936,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -13869,10 +13965,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13898,10 +13994,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13927,10 +14023,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13956,13 +14052,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -13985,10 +14081,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -14014,10 +14110,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -14043,10 +14139,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -14072,13 +14168,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -14101,10 +14197,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -14130,13 +14226,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -14159,13 +14255,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G318" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -14188,13 +14284,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -14217,10 +14313,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -14246,13 +14342,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -14275,13 +14371,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -14304,10 +14400,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -14333,10 +14429,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -14362,13 +14458,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -14391,13 +14487,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -14420,10 +14516,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -14449,13 +14545,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -14478,13 +14574,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -14507,13 +14603,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -14536,10 +14632,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -14565,10 +14661,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -14594,13 +14690,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -14623,13 +14719,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -14652,13 +14748,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -14681,13 +14777,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G336" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -14710,13 +14806,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G337" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -14739,10 +14835,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14768,13 +14864,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G339" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -14797,13 +14893,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -14826,13 +14922,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -14855,10 +14951,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14884,13 +14980,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G343" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -14919,7 +15015,7 @@
         <v>674</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -14942,10 +15038,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -15064,7 +15160,7 @@
         <v>684</v>
       </c>
       <c r="G349" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -15122,7 +15218,7 @@
         <v>688</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -15145,13 +15241,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>89</v>
+        <v>689</v>
       </c>
       <c r="F352" t="s">
-        <v>90</v>
+        <v>690</v>
       </c>
       <c r="G352" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -15174,13 +15270,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G353" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -15203,13 +15299,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G354" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -15232,13 +15328,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -15261,10 +15357,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -15290,13 +15386,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -15319,13 +15415,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F358" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -15348,10 +15444,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F359" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -15377,10 +15473,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -15406,13 +15502,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F361" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -15435,13 +15531,13 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F362" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -15464,13 +15560,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -15493,13 +15589,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -15522,10 +15618,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -15551,10 +15647,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -15580,13 +15676,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -15609,13 +15705,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F368" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -15638,10 +15734,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F369" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15667,10 +15763,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F370" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -15696,10 +15792,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F371" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -15725,13 +15821,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -15754,10 +15850,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F373" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15783,13 +15879,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F374" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -15812,10 +15908,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F375" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -15841,10 +15937,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F376" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -15870,13 +15966,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F377" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -15899,10 +15995,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15928,10 +16024,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15957,10 +16053,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F380" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15986,10 +16082,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F381" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -16015,10 +16111,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F382" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -16044,10 +16140,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F383" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -16073,10 +16169,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F384" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -16102,10 +16198,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F385" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -16131,10 +16227,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F386" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -16160,13 +16256,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>353</v>
+        <v>755</v>
       </c>
       <c r="F387" t="s">
-        <v>354</v>
+        <v>756</v>
       </c>
       <c r="G387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -16189,13 +16285,13 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>87</v>
+        <v>757</v>
       </c>
       <c r="F388" t="s">
-        <v>88</v>
+        <v>758</v>
       </c>
       <c r="G388" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -16218,13 +16314,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>91</v>
+        <v>759</v>
       </c>
       <c r="F389" t="s">
-        <v>92</v>
+        <v>760</v>
       </c>
       <c r="G389" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -16247,13 +16343,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -16276,10 +16372,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>89</v>
+        <v>763</v>
       </c>
       <c r="F391" t="s">
-        <v>90</v>
+        <v>764</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -16305,10 +16401,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -16334,10 +16430,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -16363,10 +16459,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -16392,10 +16488,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>177</v>
+        <v>771</v>
       </c>
       <c r="F395" t="s">
-        <v>178</v>
+        <v>772</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -16421,10 +16517,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>87</v>
+        <v>773</v>
       </c>
       <c r="F396" t="s">
-        <v>88</v>
+        <v>774</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -16450,13 +16546,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="G397" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -16479,13 +16575,13 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>93</v>
+        <v>777</v>
       </c>
       <c r="F398" t="s">
-        <v>94</v>
+        <v>778</v>
       </c>
       <c r="G398" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -16508,13 +16604,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="G399" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -16537,10 +16633,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -16566,13 +16662,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>93</v>
+        <v>379</v>
       </c>
       <c r="F401" t="s">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="G401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -16595,13 +16691,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>771</v>
+        <v>87</v>
       </c>
       <c r="F402" t="s">
-        <v>772</v>
+        <v>88</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -16624,13 +16720,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -16653,10 +16749,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>89</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>90</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16682,10 +16778,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16711,10 +16807,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16740,10 +16836,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16769,13 +16865,13 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>179</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>180</v>
       </c>
       <c r="G408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -16798,10 +16894,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>87</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>88</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16827,13 +16923,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="G410" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -16856,13 +16952,13 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>93</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>94</v>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -16885,13 +16981,13 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -16914,13 +17010,13 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G413" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -16943,13 +17039,13 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>93</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>94</v>
       </c>
       <c r="G414" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -16978,7 +17074,7 @@
         <v>798</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -17036,7 +17132,7 @@
         <v>802</v>
       </c>
       <c r="G417" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -17094,7 +17190,7 @@
         <v>806</v>
       </c>
       <c r="G419" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -17181,7 +17277,7 @@
         <v>812</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -17210,7 +17306,7 @@
         <v>814</v>
       </c>
       <c r="G423" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -17239,7 +17335,7 @@
         <v>816</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -17297,7 +17393,7 @@
         <v>820</v>
       </c>
       <c r="G426" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -17326,7 +17422,7 @@
         <v>822</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -17355,7 +17451,7 @@
         <v>824</v>
       </c>
       <c r="G428" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -17384,7 +17480,7 @@
         <v>826</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -17413,7 +17509,7 @@
         <v>828</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -17442,7 +17538,7 @@
         <v>830</v>
       </c>
       <c r="G431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -17471,7 +17567,7 @@
         <v>832</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -17529,7 +17625,7 @@
         <v>836</v>
       </c>
       <c r="G434" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -17587,7 +17683,7 @@
         <v>840</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -17616,7 +17712,7 @@
         <v>842</v>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -17674,7 +17770,7 @@
         <v>846</v>
       </c>
       <c r="G439" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -17732,7 +17828,7 @@
         <v>850</v>
       </c>
       <c r="G441" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -17819,7 +17915,7 @@
         <v>856</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -17848,7 +17944,7 @@
         <v>858</v>
       </c>
       <c r="G445" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -17877,7 +17973,7 @@
         <v>860</v>
       </c>
       <c r="G446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -17906,7 +18002,7 @@
         <v>862</v>
       </c>
       <c r="G447" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -17987,10 +18083,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>73</v>
+        <v>867</v>
       </c>
       <c r="F450" t="s">
-        <v>74</v>
+        <v>868</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -18016,10 +18112,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F451" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -18045,13 +18141,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F452" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -18074,10 +18170,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F453" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -18103,10 +18199,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F454" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G454" t="n">
         <v>3</v>
@@ -18132,13 +18228,13 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F455" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -18161,13 +18257,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F456" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -18190,10 +18286,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F457" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -18219,13 +18315,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>769</v>
+        <v>883</v>
       </c>
       <c r="F458" t="s">
-        <v>770</v>
+        <v>884</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -18248,13 +18344,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>153</v>
+        <v>885</v>
       </c>
       <c r="F459" t="s">
-        <v>154</v>
+        <v>886</v>
       </c>
       <c r="G459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -18277,10 +18373,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="F460" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -18306,13 +18402,13 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="F461" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="G461" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -18335,13 +18431,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F462" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="G462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -18364,13 +18460,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>887</v>
+        <v>73</v>
       </c>
       <c r="F463" t="s">
-        <v>888</v>
+        <v>74</v>
       </c>
       <c r="G463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -18393,13 +18489,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -18422,10 +18518,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -18451,10 +18547,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -18480,10 +18576,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F467" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -18509,13 +18605,13 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="G468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H468" t="s">
         <v>4</v>
@@ -18538,10 +18634,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -18567,10 +18663,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18596,10 +18692,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>795</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>796</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18625,10 +18721,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>153</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>154</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18689,7 +18785,7 @@
         <v>910</v>
       </c>
       <c r="G474" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -18718,7 +18814,7 @@
         <v>912</v>
       </c>
       <c r="G475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -18747,7 +18843,7 @@
         <v>914</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -18776,7 +18872,7 @@
         <v>916</v>
       </c>
       <c r="G477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -18805,7 +18901,7 @@
         <v>918</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -18834,7 +18930,7 @@
         <v>920</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -18918,10 +19014,10 @@
         <v>925</v>
       </c>
       <c r="F482" t="s">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="G482" t="n">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -18944,13 +19040,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F483" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G483" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -18973,10 +19069,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F484" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -19002,10 +19098,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F485" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -19031,10 +19127,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F486" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -19060,10 +19156,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F487" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -19089,10 +19185,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F488" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -19118,10 +19214,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F489" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -19147,13 +19243,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F490" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -19176,10 +19272,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F491" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -19205,10 +19301,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F492" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -19234,10 +19330,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F493" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -19263,10 +19359,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F494" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -19292,10 +19388,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F495" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -19321,10 +19417,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F496" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -19350,10 +19446,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F497" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -19379,13 +19475,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F498" t="s">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="G498" t="n">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -19414,7 +19510,7 @@
         <v>959</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -19472,7 +19568,7 @@
         <v>963</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -19704,7 +19800,7 @@
         <v>979</v>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -19965,7 +20061,7 @@
         <v>997</v>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -20139,7 +20235,7 @@
         <v>1009</v>
       </c>
       <c r="G524" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -20168,7 +20264,7 @@
         <v>1011</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -20226,7 +20322,7 @@
         <v>1015</v>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -20342,7 +20438,7 @@
         <v>1023</v>
       </c>
       <c r="G531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -20371,7 +20467,7 @@
         <v>1025</v>
       </c>
       <c r="G532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -20429,7 +20525,7 @@
         <v>1029</v>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -20603,7 +20699,7 @@
         <v>1041</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -20632,7 +20728,7 @@
         <v>1043</v>
       </c>
       <c r="G541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -20661,7 +20757,7 @@
         <v>1045</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -20690,7 +20786,7 @@
         <v>1047</v>
       </c>
       <c r="G543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H543" t="s">
         <v>4</v>
@@ -20806,7 +20902,7 @@
         <v>1055</v>
       </c>
       <c r="G547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20835,7 +20931,7 @@
         <v>1057</v>
       </c>
       <c r="G548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -21096,7 +21192,7 @@
         <v>1075</v>
       </c>
       <c r="G557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H557" t="s">
         <v>4</v>
@@ -21125,7 +21221,7 @@
         <v>1077</v>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H558" t="s">
         <v>4</v>
@@ -22517,7 +22613,7 @@
         <v>1173</v>
       </c>
       <c r="G606" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -22981,7 +23077,7 @@
         <v>1205</v>
       </c>
       <c r="G622" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -23155,7 +23251,7 @@
         <v>1217</v>
       </c>
       <c r="G628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -23619,7 +23715,7 @@
         <v>1249</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23822,7 +23918,7 @@
         <v>1263</v>
       </c>
       <c r="G651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -24054,7 +24150,7 @@
         <v>1279</v>
       </c>
       <c r="G659" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -24083,7 +24179,7 @@
         <v>1281</v>
       </c>
       <c r="G660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -24199,7 +24295,7 @@
         <v>1289</v>
       </c>
       <c r="G664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -24228,7 +24324,7 @@
         <v>1291</v>
       </c>
       <c r="G665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -24286,7 +24382,7 @@
         <v>1295</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -24315,7 +24411,7 @@
         <v>1297</v>
       </c>
       <c r="G668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -24373,7 +24469,7 @@
         <v>1301</v>
       </c>
       <c r="G670" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -24431,7 +24527,7 @@
         <v>1305</v>
       </c>
       <c r="G672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -24518,7 +24614,7 @@
         <v>1311</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H675" t="s">
         <v>4</v>
@@ -24547,7 +24643,7 @@
         <v>1313</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -24605,7 +24701,7 @@
         <v>1317</v>
       </c>
       <c r="G678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -24634,7 +24730,7 @@
         <v>1319</v>
       </c>
       <c r="G679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -24663,7 +24759,7 @@
         <v>1321</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -24692,7 +24788,7 @@
         <v>1323</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -24750,7 +24846,7 @@
         <v>1327</v>
       </c>
       <c r="G683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -24779,7 +24875,7 @@
         <v>1329</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -24837,7 +24933,7 @@
         <v>1333</v>
       </c>
       <c r="G686" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H686" t="s">
         <v>4</v>
@@ -24895,7 +24991,7 @@
         <v>1337</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -24982,7 +25078,7 @@
         <v>1343</v>
       </c>
       <c r="G691" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -25011,7 +25107,7 @@
         <v>1345</v>
       </c>
       <c r="G692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -25098,7 +25194,7 @@
         <v>1351</v>
       </c>
       <c r="G695" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -25214,7 +25310,7 @@
         <v>1359</v>
       </c>
       <c r="G699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -25330,7 +25426,7 @@
         <v>1367</v>
       </c>
       <c r="G703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -25446,7 +25542,7 @@
         <v>1375</v>
       </c>
       <c r="G707" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -25475,7 +25571,7 @@
         <v>1377</v>
       </c>
       <c r="G708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -25533,7 +25629,7 @@
         <v>1381</v>
       </c>
       <c r="G710" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -25794,7 +25890,7 @@
         <v>1399</v>
       </c>
       <c r="G719" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -25846,13 +25942,13 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>163</v>
+        <v>1402</v>
       </c>
       <c r="F721" t="s">
-        <v>164</v>
+        <v>1403</v>
       </c>
       <c r="G721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -25875,10 +25971,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F722" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -25904,10 +26000,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F723" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -25933,10 +26029,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F724" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -25962,10 +26058,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F725" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25991,10 +26087,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F726" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -26020,13 +26116,13 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F727" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G727" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H727" t="s">
         <v>4</v>
@@ -26049,10 +26145,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F728" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26078,10 +26174,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F729" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -26107,10 +26203,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="F730" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26136,10 +26232,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F731" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26165,13 +26261,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F732" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -26194,10 +26290,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F733" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -26223,13 +26319,13 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="F734" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="G734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -26252,13 +26348,13 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F735" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="G735" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -26281,10 +26377,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="F736" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -26310,13 +26406,13 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1432</v>
+        <v>163</v>
       </c>
       <c r="F737" t="s">
-        <v>1433</v>
+        <v>164</v>
       </c>
       <c r="G737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -26490,7 +26586,7 @@
         <v>1445</v>
       </c>
       <c r="G743" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -26519,7 +26615,7 @@
         <v>1447</v>
       </c>
       <c r="G744" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -26635,7 +26731,7 @@
         <v>1455</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -26693,7 +26789,7 @@
         <v>1459</v>
       </c>
       <c r="G750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -26925,7 +27021,7 @@
         <v>1475</v>
       </c>
       <c r="G758" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -26948,13 +27044,13 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>435</v>
+        <v>1476</v>
       </c>
       <c r="F759" t="s">
-        <v>436</v>
+        <v>1477</v>
       </c>
       <c r="G759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -26977,13 +27073,13 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="F760" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="G760" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -27006,10 +27102,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F761" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27035,10 +27131,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F762" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27064,10 +27160,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F763" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27093,13 +27189,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F764" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="G764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -27122,10 +27218,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F765" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27151,10 +27247,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F766" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -27180,10 +27276,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F767" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -27209,10 +27305,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F768" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -27238,10 +27334,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="F769" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -27267,10 +27363,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F770" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -27296,10 +27392,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F771" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -27325,10 +27421,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="F772" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -27354,10 +27450,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F773" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -27383,13 +27479,13 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="F774" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -27412,13 +27508,13 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1506</v>
+        <v>461</v>
       </c>
       <c r="F775" t="s">
-        <v>1507</v>
+        <v>462</v>
       </c>
       <c r="G775" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H775" t="s">
         <v>4</v>
@@ -27528,10 +27624,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1380</v>
+        <v>1514</v>
       </c>
       <c r="F779" t="s">
-        <v>1381</v>
+        <v>1515</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -27557,13 +27653,13 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="F780" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="G780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -27586,13 +27682,13 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="F781" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="G781" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -27615,10 +27711,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="F782" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -27644,10 +27740,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="F783" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -27673,10 +27769,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="F784" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -27702,10 +27798,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="F785" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -27731,10 +27827,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F786" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -27743,6 +27839,470 @@
         <v>4</v>
       </c>
       <c r="I786" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="s">
+        <v>0</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1</v>
+      </c>
+      <c r="D787" t="n">
+        <v>786</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1</v>
+      </c>
+      <c r="H787" t="s">
+        <v>4</v>
+      </c>
+      <c r="I787" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="s">
+        <v>0</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1</v>
+      </c>
+      <c r="D788" t="n">
+        <v>787</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G788" t="n">
+        <v>1</v>
+      </c>
+      <c r="H788" t="s">
+        <v>4</v>
+      </c>
+      <c r="I788" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="s">
+        <v>0</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1</v>
+      </c>
+      <c r="D789" t="n">
+        <v>788</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G789" t="n">
+        <v>1</v>
+      </c>
+      <c r="H789" t="s">
+        <v>4</v>
+      </c>
+      <c r="I789" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="s">
+        <v>0</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1</v>
+      </c>
+      <c r="D790" t="n">
+        <v>789</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G790" t="n">
+        <v>1</v>
+      </c>
+      <c r="H790" t="s">
+        <v>4</v>
+      </c>
+      <c r="I790" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="s">
+        <v>0</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1</v>
+      </c>
+      <c r="D791" t="n">
+        <v>790</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1</v>
+      </c>
+      <c r="H791" t="s">
+        <v>4</v>
+      </c>
+      <c r="I791" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="s">
+        <v>0</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1</v>
+      </c>
+      <c r="D792" t="n">
+        <v>791</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F792" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G792" t="n">
+        <v>1</v>
+      </c>
+      <c r="H792" t="s">
+        <v>4</v>
+      </c>
+      <c r="I792" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="s">
+        <v>0</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1</v>
+      </c>
+      <c r="D793" t="n">
+        <v>792</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G793" t="n">
+        <v>1</v>
+      </c>
+      <c r="H793" t="s">
+        <v>4</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="s">
+        <v>0</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1</v>
+      </c>
+      <c r="D794" t="n">
+        <v>793</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1</v>
+      </c>
+      <c r="H794" t="s">
+        <v>4</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="s">
+        <v>0</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1</v>
+      </c>
+      <c r="D795" t="n">
+        <v>794</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G795" t="n">
+        <v>1</v>
+      </c>
+      <c r="H795" t="s">
+        <v>4</v>
+      </c>
+      <c r="I795" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="s">
+        <v>0</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1</v>
+      </c>
+      <c r="D796" t="n">
+        <v>795</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1</v>
+      </c>
+      <c r="H796" t="s">
+        <v>4</v>
+      </c>
+      <c r="I796" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="s">
+        <v>0</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1</v>
+      </c>
+      <c r="D797" t="n">
+        <v>796</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G797" t="n">
+        <v>3</v>
+      </c>
+      <c r="H797" t="s">
+        <v>4</v>
+      </c>
+      <c r="I797" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="s">
+        <v>0</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1</v>
+      </c>
+      <c r="D798" t="n">
+        <v>797</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1</v>
+      </c>
+      <c r="H798" t="s">
+        <v>4</v>
+      </c>
+      <c r="I798" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="s">
+        <v>0</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1</v>
+      </c>
+      <c r="D799" t="n">
+        <v>798</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G799" t="n">
+        <v>1</v>
+      </c>
+      <c r="H799" t="s">
+        <v>4</v>
+      </c>
+      <c r="I799" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="s">
+        <v>0</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1</v>
+      </c>
+      <c r="D800" t="n">
+        <v>799</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G800" t="n">
+        <v>1</v>
+      </c>
+      <c r="H800" t="s">
+        <v>4</v>
+      </c>
+      <c r="I800" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="s">
+        <v>0</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1</v>
+      </c>
+      <c r="D801" t="n">
+        <v>800</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G801" t="n">
+        <v>1</v>
+      </c>
+      <c r="H801" t="s">
+        <v>4</v>
+      </c>
+      <c r="I801" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="s">
+        <v>0</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1</v>
+      </c>
+      <c r="D802" t="n">
+        <v>801</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1</v>
+      </c>
+      <c r="H802" t="s">
+        <v>4</v>
+      </c>
+      <c r="I802" t="n">
         <v>3</v>
       </c>
     </row>
